--- a/VLOOKUP Obstacle Course XTimer.xlsx
+++ b/VLOOKUP Obstacle Course XTimer.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3F6388-0064-470F-9217-FF8114800BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B072F9-F604-4B9E-9302-C2FF2D164812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6CC0227-0B87-4AF0-9038-73E09F3DF5CF}"/>
   </bookViews>
   <sheets>
-    <sheet name="welcome message" sheetId="8" r:id="rId1"/>
-    <sheet name="two column" sheetId="1" r:id="rId2"/>
-    <sheet name="three column" sheetId="2" r:id="rId3"/>
-    <sheet name="make a box" sheetId="3" r:id="rId4"/>
-    <sheet name="multiple columns no hints" sheetId="4" r:id="rId5"/>
-    <sheet name="horizontal fill" sheetId="5" r:id="rId6"/>
-    <sheet name="analysis" sheetId="6" r:id="rId7"/>
-    <sheet name="NAs data cleaning" sheetId="7" r:id="rId8"/>
+    <sheet name="Creator's Message" sheetId="9" r:id="rId1"/>
+    <sheet name="welcome message" sheetId="8" r:id="rId2"/>
+    <sheet name="two column" sheetId="1" r:id="rId3"/>
+    <sheet name="three column" sheetId="2" r:id="rId4"/>
+    <sheet name="make a box" sheetId="3" r:id="rId5"/>
+    <sheet name="multiple columns no hints" sheetId="4" r:id="rId6"/>
+    <sheet name="horizontal fill" sheetId="5" r:id="rId7"/>
+    <sheet name="analysis" sheetId="6" r:id="rId8"/>
+    <sheet name="NAs data cleaning" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -721,6 +722,136 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B48D90-DF91-4EC4-9872-A7BD59F3004B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12858750" cy="5419725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="8000"/>
+            <a:t>Welcome!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000"/>
+            <a:t>To</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t> show appreciation for this </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>valuable, free resource, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Please subscribe to my </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>YouTube channel: ExcelObstacleCourse</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>Please also share my videos so we can continue to</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>grow the audience and community!</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -957,7 +1088,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1006,7 +1137,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1055,7 +1186,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1104,7 +1235,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1153,7 +1284,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1202,7 +1333,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1251,7 +1382,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1596,10 +1727,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB5E180-210F-4EA1-8E79-F553245BE9A6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE8C48C-3EB1-419C-9EC6-E6B83CE4A226}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -1610,7 +1756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D12D830-15E7-4638-BF0A-67C5899A47C5}">
   <dimension ref="A1:K26"/>
   <sheetViews>
@@ -1813,7 +1959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488E56C1-CB01-40F4-8062-3DB0190F9F21}">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -2061,7 +2207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3ECB47-7396-4DC7-8CD1-D185198926FC}">
   <dimension ref="A1:L29"/>
   <sheetViews>
@@ -2225,391 +2371,6 @@
       </c>
       <c r="L14" s="7" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="str">
-        <f ca="1">IFERROR(C27-C26,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="30" t="str">
-        <f>IF(AND(B26&lt;&gt;"",B27=""),"TIMER STARTED!  PROCEED TO 'START'","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="31"/>
-    </row>
-    <row r="26" spans="1:4" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24" t="str">
-        <f ca="1">IF(B26&lt;&gt;"",IF(C26&lt;&gt;"",C26,NOW()),"")</f>
-        <v/>
-      </c>
-      <c r="D26" s="32"/>
-    </row>
-    <row r="27" spans="1:4" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="24" t="str">
-        <f ca="1">IF(B27&lt;&gt;"",IF(C27&lt;&gt;"",C27,NOW()),"")</f>
-        <v/>
-      </c>
-      <c r="D27" s="33" t="str">
-        <f>IF(B27&lt;&gt;"","TIMER STOPPED!","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="26"/>
-      <c r="D28" s="34"/>
-    </row>
-    <row r="29" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="26"/>
-      <c r="D29" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D27:D29"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2.5399999999999999E-4"/>
-        <cfvo type="num" val="5.0799999999999999E-4"/>
-        <color rgb="FF92D050"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9A21E5-6A1F-429B-A20F-10363836B326}">
-  <dimension ref="A1:O29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="H3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="H4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1242</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="11">
-        <v>213</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="H5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="11">
-        <v>5422</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="11">
-        <v>85</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="12">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="11">
-        <v>3567</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="11">
-        <v>61</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f>SUM(B2:B4)</f>
-        <v>0</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="H7" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>7645</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="11">
-        <v>124</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="H8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="11">
-        <v>2345</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="11">
-        <v>215</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="H9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="11">
-        <v>7658</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="11">
-        <v>654</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="H10" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="11">
-        <v>9764</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="11">
-        <v>215</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="H11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="11">
-        <v>3452</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="11">
-        <v>541</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O11" s="12">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="L14" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2700,6 +2461,391 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9A21E5-6A1F-429B-A20F-10363836B326}">
+  <dimension ref="A1:O29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="H3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="H4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1242</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="11">
+        <v>213</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="H5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="11">
+        <v>5422</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="11">
+        <v>85</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="11">
+        <v>3567</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="11">
+        <v>61</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>SUM(B2:B4)</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="H7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>7645</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="11">
+        <v>124</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="H8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="11">
+        <v>2345</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="11">
+        <v>215</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="H9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11">
+        <v>7658</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="11">
+        <v>654</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="H10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="11">
+        <v>9764</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="11">
+        <v>215</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="H11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="11">
+        <v>3452</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="11">
+        <v>541</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="12">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="L14" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="str">
+        <f ca="1">IFERROR(C27-C26,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="30" t="str">
+        <f>IF(AND(B26&lt;&gt;"",B27=""),"TIMER STARTED!  PROCEED TO 'START'","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="31"/>
+    </row>
+    <row r="26" spans="1:4" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24" t="str">
+        <f ca="1">IF(B26&lt;&gt;"",IF(C26&lt;&gt;"",C26,NOW()),"")</f>
+        <v/>
+      </c>
+      <c r="D26" s="32"/>
+    </row>
+    <row r="27" spans="1:4" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="24" t="str">
+        <f ca="1">IF(B27&lt;&gt;"",IF(C27&lt;&gt;"",C27,NOW()),"")</f>
+        <v/>
+      </c>
+      <c r="D27" s="33" t="str">
+        <f>IF(B27&lt;&gt;"","TIMER STOPPED!","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="26"/>
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="26"/>
+      <c r="D29" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D27:D29"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2.5399999999999999E-4"/>
+        <cfvo type="num" val="5.0799999999999999E-4"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEDDFCA-D9FC-4C77-BD64-BC289C514BA8}">
   <dimension ref="A1:O29"/>
   <sheetViews>
@@ -3084,7 +3230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3499F55-B50E-453A-AD38-CF0766ABB71E}">
   <dimension ref="A1:O29"/>
   <sheetViews>
@@ -3493,7 +3639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F65C8E1-A066-41C2-B588-C26BFAE64252}">
   <dimension ref="A1:O29"/>
   <sheetViews>
